--- a/Income/GD_inc.xlsx
+++ b/Income/GD_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.1681</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1689</v>
+        <v>0.167</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1725</v>
+        <v>0.1706</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1782</v>
+        <v>0.1763</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1794</v>
+        <v>0.1776</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1753</v>
@@ -4052,16 +4052,16 @@
         <v>0.1328</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.1319</v>
+        <v>0.1299</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1341</v>
+        <v>0.1321</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1393</v>
+        <v>0.1373</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1392</v>
+        <v>0.1372</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.1368</v>
